--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_DeepAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_DeepAR.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>77.60569287590984</v>
+        <v>74.72141563250115</v>
       </c>
       <c r="C2">
-        <v>99.83920668993652</v>
+        <v>97.13589999711806</v>
       </c>
       <c r="D2">
-        <v>99.16974928436402</v>
+        <v>99.38462181770601</v>
       </c>
       <c r="E2">
-        <v>98.609886473654</v>
+        <v>98.88086706005839</v>
       </c>
       <c r="F2">
-        <v>98.08421973407769</v>
+        <v>98.24239346626013</v>
       </c>
       <c r="G2">
-        <v>97.17990230442562</v>
+        <v>97.31529489657784</v>
       </c>
       <c r="H2">
-        <v>95.78811370070878</v>
+        <v>95.84200289885352</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>53.55394538484195</v>
+        <v>42.79607051046356</v>
       </c>
       <c r="C3">
-        <v>99.39786581299347</v>
+        <v>97.55769539225048</v>
       </c>
       <c r="D3">
-        <v>99.27619209395253</v>
+        <v>99.78788689456675</v>
       </c>
       <c r="E3">
-        <v>98.72261515691957</v>
+        <v>99.04480641882745</v>
       </c>
       <c r="F3">
-        <v>98.06875357583968</v>
+        <v>98.42782290177972</v>
       </c>
       <c r="G3">
-        <v>97.04570607426513</v>
+        <v>97.46403351055639</v>
       </c>
       <c r="H3">
-        <v>95.7591473366036</v>
+        <v>95.91340223752626</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>88.27638826762248</v>
+        <v>91.1959470467071</v>
       </c>
       <c r="C4">
-        <v>99.58842848842259</v>
+        <v>96.78665432045534</v>
       </c>
       <c r="D4">
-        <v>99.1306747513176</v>
+        <v>99.22175657692412</v>
       </c>
       <c r="E4">
-        <v>98.66435965783664</v>
+        <v>98.70586128554535</v>
       </c>
       <c r="F4">
-        <v>98.13112736583551</v>
+        <v>98.32484031176851</v>
       </c>
       <c r="G4">
-        <v>97.08388120186278</v>
+        <v>97.33507131787675</v>
       </c>
       <c r="H4">
-        <v>95.59254345342171</v>
+        <v>95.82661924094829</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>85.5766732326521</v>
+        <v>66.43068031500303</v>
       </c>
       <c r="C5">
-        <v>99.50913863972758</v>
+        <v>96.87405924577853</v>
       </c>
       <c r="D5">
-        <v>99.28755409280366</v>
+        <v>99.43339868583621</v>
       </c>
       <c r="E5">
-        <v>98.6751326958303</v>
+        <v>98.81460183363905</v>
       </c>
       <c r="F5">
-        <v>98.22679045685805</v>
+        <v>98.28709609094793</v>
       </c>
       <c r="G5">
-        <v>97.23566336824324</v>
+        <v>97.16781939710914</v>
       </c>
       <c r="H5">
-        <v>95.75862025464481</v>
+        <v>95.96845013475753</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>76.75609232279484</v>
+        <v>69.49300814699041</v>
       </c>
       <c r="C6">
-        <v>99.65963933962573</v>
+        <v>97.28585912329721</v>
       </c>
       <c r="D6">
-        <v>99.3257582239999</v>
+        <v>99.35999213418873</v>
       </c>
       <c r="E6">
-        <v>98.6116382872102</v>
+        <v>98.87461661348453</v>
       </c>
       <c r="F6">
-        <v>98.06828257094944</v>
+        <v>98.2307537224838</v>
       </c>
       <c r="G6">
-        <v>97.22794030369451</v>
+        <v>97.38278819347511</v>
       </c>
       <c r="H6">
-        <v>95.66096015691622</v>
+        <v>95.91903370780105</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_DeepAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_DeepAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>74.72141563250115</v>
@@ -456,15 +462,18 @@
         <v>98.24239346626013</v>
       </c>
       <c r="G2">
+        <v>97.82425019069851</v>
+      </c>
+      <c r="H2">
         <v>97.31529489657784</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>95.84200289885352</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>42.79607051046356</v>
@@ -482,15 +491,18 @@
         <v>98.42782290177972</v>
       </c>
       <c r="G3">
+        <v>97.89367936975371</v>
+      </c>
+      <c r="H3">
         <v>97.46403351055639</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>95.91340223752626</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>91.1959470467071</v>
@@ -508,15 +520,18 @@
         <v>98.32484031176851</v>
       </c>
       <c r="G4">
+        <v>97.83704822723142</v>
+      </c>
+      <c r="H4">
         <v>97.33507131787675</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>95.82661924094829</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>66.43068031500303</v>
@@ -534,15 +549,18 @@
         <v>98.28709609094793</v>
       </c>
       <c r="G5">
+        <v>97.80219795985222</v>
+      </c>
+      <c r="H5">
         <v>97.16781939710914</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>95.96845013475753</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>69.49300814699041</v>
@@ -560,9 +578,12 @@
         <v>98.2307537224838</v>
       </c>
       <c r="G6">
+        <v>97.81687888018982</v>
+      </c>
+      <c r="H6">
         <v>97.38278819347511</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>95.91903370780105</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_DeepAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_DeepAR.xlsx
@@ -462,13 +462,13 @@
         <v>98.24239346626013</v>
       </c>
       <c r="G2">
-        <v>97.82425019069851</v>
+        <v>97.67168086543172</v>
       </c>
       <c r="H2">
-        <v>97.31529489657784</v>
+        <v>97.43673423899337</v>
       </c>
       <c r="I2">
-        <v>95.84200289885352</v>
+        <v>95.99104519356429</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,13 +491,13 @@
         <v>98.42782290177972</v>
       </c>
       <c r="G3">
-        <v>97.89367936975371</v>
+        <v>97.98257399853244</v>
       </c>
       <c r="H3">
-        <v>97.46403351055639</v>
+        <v>97.28207661140405</v>
       </c>
       <c r="I3">
-        <v>95.91340223752626</v>
+        <v>96.19876235274121</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -520,13 +520,13 @@
         <v>98.32484031176851</v>
       </c>
       <c r="G4">
-        <v>97.83704822723142</v>
+        <v>97.82840967211807</v>
       </c>
       <c r="H4">
-        <v>97.33507131787675</v>
+        <v>97.26767829139126</v>
       </c>
       <c r="I4">
-        <v>95.82661924094829</v>
+        <v>95.84247630362455</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -549,13 +549,13 @@
         <v>98.28709609094793</v>
       </c>
       <c r="G5">
-        <v>97.80219795985222</v>
+        <v>97.74999335750779</v>
       </c>
       <c r="H5">
-        <v>97.16781939710914</v>
+        <v>97.20078650004831</v>
       </c>
       <c r="I5">
-        <v>95.96845013475753</v>
+        <v>96.00854362975288</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,13 +578,13 @@
         <v>98.2307537224838</v>
       </c>
       <c r="G6">
-        <v>97.81687888018982</v>
+        <v>97.86485448710926</v>
       </c>
       <c r="H6">
-        <v>97.38278819347511</v>
+        <v>97.29865438527905</v>
       </c>
       <c r="I6">
-        <v>95.91903370780105</v>
+        <v>95.89948081530729</v>
       </c>
     </row>
   </sheetData>
